--- a/data/long_razon/P23_10-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_10-Estudios-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-13,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-17,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>44,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-25,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-21,45%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-46,74; 36,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-51,3; 25,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 111,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-49,71; 4,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 57,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-43,36; 1,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-33,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-28,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-31,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-49,42; -10,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,92; 26,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-46,08; -10,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 37,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,01; -16,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 22,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-28,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-14,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>36,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,39 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 67,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-49,87; -4,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-35,51; 22,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 74,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 29,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 22,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-15,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-14,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-11,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,85%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,42 +1015,175 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,72; 1,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,42; 2,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,74; 6,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 25,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,56; -0,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 8,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/long_razon/P23_10-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_10-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -630,329 +635,217 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.01129195644132542</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.1691198740128728</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.5126203804266124</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.4931446368947637</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.2809721243500836</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.09733045810506416</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.239971727393974</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.2265332299302463</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.2953133647845298</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.4480948955582152</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.5000117237889279</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.1896308082943303</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.1096303036889795</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.4934038051443185</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.3441155455980602</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.1522606098181452</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.4371586700249315</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.1282323191948586</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.6412495727109803</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.2815141246570794</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.064394847832821</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.310412198790889</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.02268539355269943</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.6943591046712795</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.7089070331516224</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>-0.002962956307640087</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1.056516533324956</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.1978439537294644</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.02382383531005384</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.09868199523565735</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.2964072844436119</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.06733938848903534</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.07371021518838518</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.2479417975894242</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.01433387445383207</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.08715888213058465</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.4063825030725078</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.2799650417948667</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.2359185727563295</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.4614366040831987</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.1693255864599448</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.1972133267019879</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.3945749914557316</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.1558929390992257</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.1463258665657347</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.1249597145388741</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2623921214644257</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.6208746716753926</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-0.08738206067807701</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3820248817535984</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.4512559624048435</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>-0.06427625440924389</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.2337653120390214</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.4127943368943085</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -960,233 +853,230 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.2124081712332843</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.2675879098127434</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.0648864462483856</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.2226725589128553</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.3259526705044612</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.02343885632283703</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.02018721232804393</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.002972037158380617</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.04476219348877131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.1460541067412501</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.4801100345142911</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.2402492861729967</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.4232556567869694</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.003192400463151922</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.2451167273668123</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.2222333198424733</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.1879147974761324</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.2003490687653804</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.7458567571366802</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-0.01953349741611409</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.7567540777328386</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.08444610394172884</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.7011790179954825</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.3980237593322941</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.2447506813811495</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.2151027403079921</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.3330222102430841</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.04876867858662411</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.1300448536529827</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1752132178876362</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.1535709308430831</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.03998857824110943</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.06283152390819578</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.1027041771460388</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.0533223910887491</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.1208627047882199</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.239341867319576</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2972164692258252</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.08932893655466075</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.3041762044041877</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.1111572159006831</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.1240679674624915</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.2198917371392697</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.1657017276634757</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.04608484719764073</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.1711822307874774</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.05798612849521824</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.5400310074212954</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.02933382609669372</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.2147756871512086</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.2877160575782963</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.03578976219269735</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.07902531055146833</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.3390861907011266</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
